--- a/Excel/MyEarthExcel.xlsx
+++ b/Excel/MyEarthExcel.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="154">
   <si>
     <t>ReferenceCode</t>
   </si>
@@ -471,6 +471,24 @@
   <si>
     <t>2 kg</t>
   </si>
+  <si>
+    <t>ImgURL1</t>
+  </si>
+  <si>
+    <t>ImgURL2</t>
+  </si>
+  <si>
+    <t>ImgURL3</t>
+  </si>
+  <si>
+    <t>ImgURL4</t>
+  </si>
+  <si>
+    <t>ImgURL5</t>
+  </si>
+  <si>
+    <t>ImgURL6</t>
+  </si>
 </sst>
 </file>
 
@@ -479,7 +497,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd&quot;-&quot;mm&quot;-&quot;yyyy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -524,6 +542,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -564,7 +589,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -605,6 +630,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -820,11 +846,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO1000"/>
+  <dimension ref="A1:AU1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AO1" sqref="AO1"/>
+      <selection pane="bottomLeft" activeCell="AP1" sqref="AP1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -865,7 +891,7 @@
     <col min="38" max="38" width="8.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41">
+    <row r="1" spans="1:47">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -989,8 +1015,26 @@
       <c r="AO1" s="25" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:41">
+      <c r="AP1" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="AQ1" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="AR1" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="AS1" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="AT1" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="AU1" s="30" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
       <c r="C2" s="8"/>
@@ -1030,7 +1074,7 @@
       <c r="AK2" s="12"/>
       <c r="AL2" s="12"/>
     </row>
-    <row r="3" spans="1:41">
+    <row r="3" spans="1:47">
       <c r="A3" s="6"/>
       <c r="B3" s="12"/>
       <c r="C3" s="8"/>
@@ -1068,7 +1112,7 @@
       <c r="AK3" s="12"/>
       <c r="AL3" s="12"/>
     </row>
-    <row r="4" spans="1:41">
+    <row r="4" spans="1:47">
       <c r="A4" s="17"/>
       <c r="B4" s="12"/>
       <c r="C4" s="8"/>
@@ -1106,7 +1150,7 @@
       <c r="AK4" s="12"/>
       <c r="AL4" s="12"/>
     </row>
-    <row r="5" spans="1:41">
+    <row r="5" spans="1:47">
       <c r="A5" s="17"/>
       <c r="B5" s="12"/>
       <c r="C5" s="8"/>
@@ -1144,7 +1188,7 @@
       <c r="AK5" s="12"/>
       <c r="AL5" s="12"/>
     </row>
-    <row r="6" spans="1:41">
+    <row r="6" spans="1:47">
       <c r="A6" s="17"/>
       <c r="B6" s="12"/>
       <c r="C6" s="8"/>
@@ -1182,7 +1226,7 @@
       <c r="AK6" s="12"/>
       <c r="AL6" s="12"/>
     </row>
-    <row r="7" spans="1:41">
+    <row r="7" spans="1:47">
       <c r="A7" s="17"/>
       <c r="B7" s="12"/>
       <c r="C7" s="8"/>
@@ -1220,7 +1264,7 @@
       <c r="AK7" s="12"/>
       <c r="AL7" s="12"/>
     </row>
-    <row r="8" spans="1:41">
+    <row r="8" spans="1:47">
       <c r="A8" s="17"/>
       <c r="B8" s="12"/>
       <c r="C8" s="8"/>
@@ -1258,7 +1302,7 @@
       <c r="AK8" s="12"/>
       <c r="AL8" s="12"/>
     </row>
-    <row r="9" spans="1:41">
+    <row r="9" spans="1:47">
       <c r="A9" s="17"/>
       <c r="B9" s="12"/>
       <c r="C9" s="8"/>
@@ -1296,7 +1340,7 @@
       <c r="AK9" s="12"/>
       <c r="AL9" s="12"/>
     </row>
-    <row r="10" spans="1:41">
+    <row r="10" spans="1:47">
       <c r="A10" s="17"/>
       <c r="B10" s="12"/>
       <c r="C10" s="8"/>
@@ -1334,7 +1378,7 @@
       <c r="AK10" s="12"/>
       <c r="AL10" s="12"/>
     </row>
-    <row r="11" spans="1:41">
+    <row r="11" spans="1:47">
       <c r="A11" s="17"/>
       <c r="B11" s="12"/>
       <c r="C11" s="8"/>
@@ -1372,7 +1416,7 @@
       <c r="AK11" s="12"/>
       <c r="AL11" s="12"/>
     </row>
-    <row r="12" spans="1:41">
+    <row r="12" spans="1:47">
       <c r="A12" s="17"/>
       <c r="B12" s="12"/>
       <c r="C12" s="8"/>
@@ -1410,7 +1454,7 @@
       <c r="AK12" s="12"/>
       <c r="AL12" s="12"/>
     </row>
-    <row r="13" spans="1:41">
+    <row r="13" spans="1:47">
       <c r="A13" s="17"/>
       <c r="B13" s="12"/>
       <c r="C13" s="8"/>
@@ -1448,7 +1492,7 @@
       <c r="AK13" s="12"/>
       <c r="AL13" s="12"/>
     </row>
-    <row r="14" spans="1:41">
+    <row r="14" spans="1:47">
       <c r="A14" s="17"/>
       <c r="B14" s="12"/>
       <c r="C14" s="8"/>
@@ -1486,7 +1530,7 @@
       <c r="AK14" s="12"/>
       <c r="AL14" s="12"/>
     </row>
-    <row r="15" spans="1:41">
+    <row r="15" spans="1:47">
       <c r="A15" s="17"/>
       <c r="B15" s="12"/>
       <c r="C15" s="8"/>
@@ -1524,7 +1568,7 @@
       <c r="AK15" s="12"/>
       <c r="AL15" s="12"/>
     </row>
-    <row r="16" spans="1:41">
+    <row r="16" spans="1:47">
       <c r="A16" s="17"/>
       <c r="B16" s="12"/>
       <c r="C16" s="8"/>
@@ -38957,7 +39001,7 @@
   </sheetData>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="178" yWindow="289" count="14">
